--- a/ftest/fm48/Max.Ded.Calculation.Example.xlsx
+++ b/ftest/fm48/Max.Ded.Calculation.Example.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64_2\home\Joh\ktest\ftest\data\fm48\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\ktest\ftest\fm48\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69556D7D-1E99-436C-880D-E09B751F11F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBB895-1ECF-48DF-B34D-73F523BC4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6852" yWindow="-336" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{75D5E7CF-EFFD-4508-9A5B-71E86028FB54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75D5E7CF-EFFD-4508-9A5B-71E86028FB54}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxDed_old" sheetId="2" r:id="rId1"/>
     <sheet name="MaxDed1" sheetId="5" r:id="rId2"/>
     <sheet name="MaxDed2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Location</t>
   </si>
@@ -133,35 +137,35 @@
     <t>e.g. in example below gross loss is 600,000 - even though MaxDed has decreased the level of the deductibles -  the full location limits still apply</t>
   </si>
   <si>
-    <t>x.loss</t>
-  </si>
-  <si>
-    <t>deductible</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>accumulated_limit</t>
-  </si>
-  <si>
-    <t>x.limit_surplus</t>
-  </si>
-  <si>
-    <t>x.effective_deductible</t>
-  </si>
-  <si>
-    <t>adjusted limit_surplus</t>
-  </si>
-  <si>
-    <t>loss_adj</t>
+    <t>Underlimit</t>
+  </si>
+  <si>
+    <t>Back-allocation Prior Level</t>
+  </si>
+  <si>
+    <t>Back-allocation Underlimit</t>
+  </si>
+  <si>
+    <t>Back-allocation allocrule 1 (GU)</t>
+  </si>
+  <si>
+    <t>Back-allocation allocrule 2 (Prior Level)</t>
+  </si>
+  <si>
+    <t>Back-allocation allocrule 2 (Prior Level - updated August 2021)</t>
+  </si>
+  <si>
+    <t>Back allocation Prior Level new method</t>
+  </si>
+  <si>
+    <t>Allocation method weighting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +204,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,9 +263,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,10 +945,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF30DA28-3D8C-42F1-9C20-4F304D5C63B5}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>200000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C11*C12</f>
+        <v>250000</v>
+      </c>
+      <c r="D22" s="5">
+        <f>D11*D12</f>
+        <v>400000</v>
+      </c>
+      <c r="E22" s="5">
+        <f>E11*E12</f>
+        <v>600000</v>
+      </c>
+      <c r="F22" s="5">
+        <f>SUM(C22:E22)</f>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>MAX(C22-C13,0)</f>
+        <v>249000</v>
+      </c>
+      <c r="D23" s="5">
+        <f>MAX(D22-D13,0)</f>
+        <v>399000</v>
+      </c>
+      <c r="E23" s="5">
+        <f>MAX(E22-E13,0)</f>
+        <v>599000</v>
+      </c>
+      <c r="F23" s="5">
+        <f>SUM(C23:E23)</f>
+        <v>1247000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <f>C22-C23</f>
+        <v>1000</v>
+      </c>
+      <c r="D24" s="5">
+        <f>D22-D23</f>
+        <v>1000</v>
+      </c>
+      <c r="E24" s="5">
+        <f>E22-E23</f>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="5">
+        <f>SUM(C24:E24)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5">
+        <f>MIN(C23,C14)</f>
+        <v>200000</v>
+      </c>
+      <c r="D25" s="5">
+        <f>MIN(D23,D14)</f>
+        <v>200000</v>
+      </c>
+      <c r="E25" s="5">
+        <f>MIN(E23,E14)</f>
+        <v>200000</v>
+      </c>
+      <c r="F25" s="5">
+        <f>SUM(C25:E25)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11">
+        <f>C25/$F$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:E26" si="0">D25/$F$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C14</f>
+        <v>200000</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D14</f>
+        <v>200000</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E14</f>
+        <v>200000</v>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(C27:E27)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C24</f>
+        <v>1000</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D24</f>
+        <v>1000</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E24</f>
+        <v>1000</v>
+      </c>
+      <c r="F28" s="5">
+        <f>SUM(C28:E28)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11">
+        <f>C28/$F$28</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" ref="D29:E29" si="1">D28/$F$28</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f>F25</f>
+        <v>600000</v>
+      </c>
+      <c r="G30" s="13">
+        <f>F30/F33</f>
+        <v>0.99667774086378735</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f>MAX(F24-C16,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="G32" s="13">
+        <f>F32/F33</f>
+        <v>3.3222591362126247E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8">
+        <f>F32+F30</f>
+        <v>602000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <f>MIN(F33,F27)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <f>MIN(F34,$C$17)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="11">
+        <f>C26*$G$30+C29*$G$32</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" ref="D37:E37" si="2">D26*$G$30+D29*$G$32</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <f>$F36*C22/$F$22</f>
+        <v>120000</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" ref="D38:E38" si="3">$F36*D22/$F$22</f>
+        <v>192000</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="3"/>
+        <v>288000</v>
+      </c>
+      <c r="F38" s="5">
+        <f>SUM(C38:E38)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5">
+        <f>C26*$F$36</f>
+        <v>200000</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" ref="D39:E39" si="4">D26*$F$36</f>
+        <v>200000</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="F39" s="5">
+        <f>SUM(C39:E39)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5">
+        <f>C37*$F$36</f>
+        <v>200000</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:E40" si="5">D37*$F$36</f>
+        <v>200000</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="F40" s="5">
+        <f>SUM(C40:E40)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B82D9-4E2C-4B74-922D-2B43B8FF3605}">
+  <dimension ref="B2:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +1488,6 @@
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
@@ -995,13 +1550,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="6">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1098,19 +1653,19 @@
       </c>
       <c r="C22" s="5">
         <f>C11*C12</f>
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c r="D22" s="5">
         <f>D11*D12</f>
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="5">
         <f>E11*E12</f>
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="F22" s="5">
         <f>SUM(C22:E22)</f>
-        <v>1250000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -1119,19 +1674,19 @@
       </c>
       <c r="C23" s="5">
         <f>MAX(C22-C13,0)</f>
-        <v>249000</v>
+        <v>49000</v>
       </c>
       <c r="D23" s="5">
         <f>MAX(D22-D13,0)</f>
-        <v>399000</v>
+        <v>99000</v>
       </c>
       <c r="E23" s="5">
         <f>MAX(E22-E13,0)</f>
-        <v>599000</v>
+        <v>149000</v>
       </c>
       <c r="F23" s="5">
         <f>SUM(C23:E23)</f>
-        <v>1247000</v>
+        <v>297000</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -1161,120 +1716,163 @@
       </c>
       <c r="C25" s="5">
         <f>MIN(C23,C14)</f>
-        <v>200000</v>
+        <v>49000</v>
       </c>
       <c r="D25" s="5">
         <f>MIN(D23,D14)</f>
-        <v>200000</v>
+        <v>99000</v>
       </c>
       <c r="E25" s="5">
         <f>MIN(E23,E14)</f>
-        <v>200000</v>
+        <v>149000</v>
       </c>
       <c r="F25" s="5">
         <f>SUM(C25:E25)</f>
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11">
+        <f>C25/$F$25</f>
+        <v>0.16498316498316498</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:E26" si="0">D25/$F$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.50168350168350173</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C14</f>
+        <v>200000</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D14</f>
+        <v>200000</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E14</f>
+        <v>200000</v>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(C27:E27)</f>
         <v>600000</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8">
-        <f>C14</f>
-        <v>200000</v>
-      </c>
-      <c r="D26" s="8">
-        <f>D14</f>
-        <v>200000</v>
-      </c>
-      <c r="E26" s="8">
-        <f>E14</f>
-        <v>200000</v>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(C26:E26)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C24</f>
+        <v>1000</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D24</f>
+        <v>1000</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E24</f>
+        <v>1000</v>
+      </c>
       <c r="F28" s="5">
-        <f>F25</f>
-        <v>600000</v>
-      </c>
-      <c r="G28" s="10"/>
+        <f>SUM(C28:E28)</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11">
+        <f>C28/$F$28</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" ref="D29:E29" si="1">D28/$F$28</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="10"/>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <f>MAX(F24-C16,0)</f>
-        <v>2000</v>
+        <f>F25</f>
+        <v>297000</v>
+      </c>
+      <c r="G30" s="13">
+        <f>F30/F33</f>
+        <v>0.99331103678929766</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="8">
-        <f>F30+F28</f>
-        <v>602000</v>
-      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <f>MIN(F31,F26)</f>
-        <v>600000</v>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f>MAX(F24-C16,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="G32" s="13">
+        <f>F32/F33</f>
+        <v>6.688963210702341E-3</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="8">
+        <f>F32+F30</f>
+        <v>299000</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
-        <f>MIN(F32,$C$17)</f>
-        <v>600000</v>
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <f>MIN(F33,F27)</f>
+        <v>299000</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -1285,485 +1883,94 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="5">
-        <f>$F36*C22/$F$22</f>
-        <v>120000</v>
-      </c>
-      <c r="D36" s="5">
-        <f>$F36*D22/$F$22</f>
-        <v>192000</v>
-      </c>
-      <c r="E36" s="5">
-        <f>$F36*E22/$F$22</f>
-        <v>288000</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5">
-        <f>F34</f>
-        <v>600000</v>
-      </c>
+        <f>MIN(F34,$C$17)</f>
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="11">
+        <f>C26*$G$30+C29*$G$32</f>
+        <v>0.16610925306577481</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" ref="D37:E37" si="2">D26*$G$30+D29*$G$32</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5005574136008919</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="10">
-        <f>F28</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="10">
-        <f>F23-F26</f>
-        <v>647000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10">
-        <f>F24</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10">
-        <f>C16</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10">
-        <f>C38+C40-C41</f>
-        <v>602000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="10">
-        <f>IF(C39&gt;0,C38)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="10">
-        <f>C42-C38</f>
-        <v>2000</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="10">
-        <f>C39+C44</f>
-        <v>649000</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B82D9-4E2C-4B74-922D-2B43B8FF3605}">
-  <dimension ref="B2:F36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D14" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E14" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5">
-        <f>C11*C12</f>
-        <v>50000</v>
-      </c>
-      <c r="D22" s="5">
-        <f>D11*D12</f>
-        <v>100000</v>
-      </c>
-      <c r="E22" s="5">
-        <f>E11*E12</f>
-        <v>150000</v>
-      </c>
-      <c r="F22" s="5">
-        <f>SUM(C22:E22)</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5">
-        <f>MAX(C22-C13,0)</f>
-        <v>49000</v>
-      </c>
-      <c r="D23" s="5">
-        <f>MAX(D22-D13,0)</f>
-        <v>99000</v>
-      </c>
-      <c r="E23" s="5">
-        <f>MAX(E22-E13,0)</f>
-        <v>149000</v>
-      </c>
-      <c r="F23" s="5">
-        <f>SUM(C23:E23)</f>
-        <v>297000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5">
-        <f>C22-C23</f>
-        <v>1000</v>
-      </c>
-      <c r="D24" s="5">
-        <f>D22-D23</f>
-        <v>1000</v>
-      </c>
-      <c r="E24" s="5">
-        <f>E22-E23</f>
-        <v>1000</v>
-      </c>
-      <c r="F24" s="5">
-        <f>SUM(C24:E24)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5">
-        <f>MIN(C23,C14)</f>
-        <v>49000</v>
-      </c>
-      <c r="D25" s="5">
-        <f>MIN(D23,D14)</f>
-        <v>99000</v>
-      </c>
-      <c r="E25" s="5">
-        <f>MIN(E23,E14)</f>
-        <v>149000</v>
-      </c>
-      <c r="F25" s="5">
-        <f>SUM(C25:E25)</f>
-        <v>297000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8">
-        <f>C14</f>
-        <v>200000</v>
-      </c>
-      <c r="D26" s="8">
-        <f>D14</f>
-        <v>200000</v>
-      </c>
-      <c r="E26" s="8">
-        <f>E14</f>
-        <v>200000</v>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(C26:E26)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <f>F25</f>
-        <v>297000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
-        <f>MAX(F24-C16,0)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8">
-        <f>F30+F28</f>
-        <v>299000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <f>MIN(F31,F26)</f>
-        <v>299000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
-        <f>MIN(F32,$C$17)</f>
-        <v>299000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="C38" s="5">
         <f>$F36*C22/$F$22</f>
         <v>49833.333333333336</v>
       </c>
-      <c r="D36" s="5">
-        <f>$F36*D22/$F$22</f>
+      <c r="D38" s="5">
+        <f t="shared" ref="D38:E38" si="3">$F36*D22/$F$22</f>
         <v>99666.666666666672</v>
       </c>
-      <c r="E36" s="5">
-        <f>$F36*E22/$F$22</f>
+      <c r="E38" s="5">
+        <f t="shared" si="3"/>
         <v>149500</v>
       </c>
-      <c r="F36" s="5">
-        <f>F34</f>
+      <c r="F38" s="5">
+        <f>SUM(C38:E38)</f>
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5">
+        <f>C26*$F$36</f>
+        <v>49329.96632996633</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" ref="D39:E39" si="4">D26*$F$36</f>
+        <v>99666.666666666657</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="4"/>
+        <v>150003.36700336702</v>
+      </c>
+      <c r="F39" s="5">
+        <f>SUM(C39:E39)</f>
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5">
+        <f>C37*$F$36</f>
+        <v>49666.666666666672</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:E40" si="5">D37*$F$36</f>
+        <v>99666.666666666657</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="5"/>
+        <v>149666.66666666669</v>
+      </c>
+      <c r="F40" s="5">
+        <f>SUM(C40:E40)</f>
         <v>299000</v>
       </c>
     </row>
